--- a/src/cm3d/resources/CM3d_input_template.xlsx
+++ b/src/cm3d/resources/CM3d_input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simao/Downloads/CM3D/src/cm3d/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD84744-1ADE-4840-8DEB-0922F5058885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDC54B-7265-BF4B-A3A1-C33BFE653378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="680" windowWidth="25580" windowHeight="26180" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="660" windowWidth="25580" windowHeight="26180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Study title</t>
   </si>
@@ -188,13 +188,22 @@
   </si>
   <si>
     <t>Number of biological replicas</t>
+  </si>
+  <si>
+    <t>Morphological information</t>
+  </si>
+  <si>
+    <t>Analysis workflow</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,6 +251,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -264,12 +280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFE7E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE8E6E6"/>
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
@@ -278,6 +288,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE8E6E6"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -319,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -339,11 +355,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,6 +436,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFEDEDED"/>
       <color rgb="FFE8E6E6"/>
     </mruColors>
   </colors>
@@ -731,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -904,7 +923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -914,28 +935,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1097,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,9 +1131,12 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
@@ -1131,8 +1155,17 @@
       <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1152,7 +1185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1183,7 +1216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1204,7 +1237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1213,8 +1248,8 @@
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -1222,24 +1257,33 @@
     <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1292,12 +1336,12 @@
       <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1309,138 +1353,138 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1450,18 +1494,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
@@ -1480,8 +1529,17 @@
       <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1501,7 +1559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -1524,16 +1582,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342ECCF3-8B39-9242-8581-339195C29B62}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
@@ -1552,8 +1614,17 @@
       <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1573,7 +1644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>42</v>
       </c>
